--- a/Test Case/TestReport.xlsx
+++ b/Test Case/TestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Semester-05\SWT301\SWT301_Final-Project_SWP391-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5CA165-DBEF-4282-AF5C-9EFD022FDEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A42F4-FDA1-41BF-B82C-DA824FEB6F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="388">
   <si>
     <t>TEST REPORT DOCUMENT</t>
   </si>
@@ -1210,14 +1210,6 @@
     <t xml:space="preserve">Login user </t>
   </si>
   <si>
-    <t xml:space="preserve">1. User enter correct username and password in Login page
-2. Press login button
-</t>
-  </si>
-  <si>
-    <t>Application redirect to home page and pop up message "Login successfully"</t>
-  </si>
-  <si>
     <t>email: "dat01102003@gmail.com" password:"1"</t>
   </si>
   <si>
@@ -1362,9 +1354,6 @@
     <t>Enter another password</t>
   </si>
   <si>
-    <t>Confim passwod correctly</t>
-  </si>
-  <si>
     <t>Role must choose</t>
   </si>
   <si>
@@ -1378,6 +1367,20 @@
   </si>
   <si>
     <t>Register Account</t>
+  </si>
+  <si>
+    <t>Confim passwod incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User enter correct email and password in Login page
+2. Press login button
+</t>
+  </si>
+  <si>
+    <t>Application pop up message "Wrong password"</t>
+  </si>
+  <si>
+    <t>No error</t>
   </si>
 </sst>
 </file>
@@ -10162,13 +10165,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10200,13 +10203,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="143" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -36189,9 +36192,9 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -36393,11 +36396,11 @@
       </c>
       <c r="B6" s="96">
         <f>COUNTIF($F10:$F991,B5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="96">
         <f>COUNTIF($F10:$F1001,C5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="96">
         <f>COUNTIF($F10:$F991,D5)</f>
@@ -36435,11 +36438,11 @@
       </c>
       <c r="B7" s="96">
         <f>COUNTIF($I10:$I991,B5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="96">
         <f>COUNTIF($I10:$I1001,C5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="96">
         <f>COUNTIF($F10:$F991,D5)</f>
@@ -36477,11 +36480,11 @@
       </c>
       <c r="B8" s="101">
         <f>COUNTIF($L10:$L991,B5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="101">
         <f>COUNTIF($L10:$L1001,C5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="101">
         <f>COUNTIF($F10:$F991,D5)</f>
@@ -36639,16 +36642,16 @@
         <v>330</v>
       </c>
       <c r="C12" s="133" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="D12" s="133" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>333</v>
-      </c>
       <c r="F12" s="133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="134">
         <v>45369</v>
@@ -36657,7 +36660,7 @@
         <v>194</v>
       </c>
       <c r="I12" s="133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="134">
         <v>45369</v>
@@ -36666,7 +36669,7 @@
         <v>194</v>
       </c>
       <c r="L12" s="133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="134">
         <v>45369</v>
@@ -36689,19 +36692,19 @@
     </row>
     <row r="13" spans="1:26" ht="55.2" outlineLevel="1">
       <c r="A13" s="132" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B13" s="133" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="133" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="D13" s="133" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F13" s="133" t="s">
         <v>36</v>
@@ -36745,19 +36748,19 @@
     </row>
     <row r="14" spans="1:26" ht="55.2" outlineLevel="1">
       <c r="A14" s="132" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B14" s="133" t="s">
         <v>330</v>
       </c>
       <c r="C14" s="133" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="D14" s="133" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="133" t="s">
         <v>336</v>
-      </c>
-      <c r="E14" s="133" t="s">
-        <v>338</v>
       </c>
       <c r="F14" s="133" t="s">
         <v>37</v>
@@ -36831,19 +36834,19 @@
     </row>
     <row r="16" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A16" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="133" t="s">
         <v>339</v>
       </c>
-      <c r="B16" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="133" t="s">
+      <c r="E16" s="133" t="s">
         <v>341</v>
-      </c>
-      <c r="E16" s="133" t="s">
-        <v>343</v>
       </c>
       <c r="F16" s="133" t="s">
         <v>36</v>
@@ -36852,7 +36855,7 @@
         <v>45369</v>
       </c>
       <c r="H16" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I16" s="133" t="s">
         <v>36</v>
@@ -36861,7 +36864,7 @@
         <v>45369</v>
       </c>
       <c r="K16" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L16" s="133" t="s">
         <v>36</v>
@@ -36870,7 +36873,7 @@
         <v>45369</v>
       </c>
       <c r="N16" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O16" s="133"/>
       <c r="P16" s="7"/>
@@ -36887,19 +36890,19 @@
     </row>
     <row r="17" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A17" s="132" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="133" t="s">
         <v>345</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="139" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" s="133" t="s">
-        <v>346</v>
-      </c>
-      <c r="E17" s="133" t="s">
-        <v>347</v>
       </c>
       <c r="F17" s="133" t="s">
         <v>36</v>
@@ -36908,7 +36911,7 @@
         <v>45369</v>
       </c>
       <c r="H17" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I17" s="133" t="s">
         <v>36</v>
@@ -36917,7 +36920,7 @@
         <v>45369</v>
       </c>
       <c r="K17" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L17" s="133" t="s">
         <v>36</v>
@@ -36926,7 +36929,7 @@
         <v>45369</v>
       </c>
       <c r="N17" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O17" s="133"/>
       <c r="P17" s="7"/>
@@ -36943,19 +36946,19 @@
     </row>
     <row r="18" spans="1:26" ht="27.6" outlineLevel="1">
       <c r="A18" s="132" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="133" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="133" t="s">
         <v>348</v>
-      </c>
-      <c r="B18" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="139" t="s">
-        <v>342</v>
-      </c>
-      <c r="D18" s="133" t="s">
-        <v>349</v>
-      </c>
-      <c r="E18" s="133" t="s">
-        <v>350</v>
       </c>
       <c r="F18" s="133" t="s">
         <v>36</v>
@@ -36964,7 +36967,7 @@
         <v>45369</v>
       </c>
       <c r="H18" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I18" s="133" t="s">
         <v>36</v>
@@ -36973,7 +36976,7 @@
         <v>45369</v>
       </c>
       <c r="K18" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L18" s="133" t="s">
         <v>36</v>
@@ -36982,7 +36985,7 @@
         <v>45369</v>
       </c>
       <c r="N18" s="133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O18" s="133"/>
       <c r="P18" s="7"/>
@@ -36999,19 +37002,19 @@
     </row>
     <row r="19" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A19" s="132" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D19" s="133" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E19" s="133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F19" s="133" t="s">
         <v>36</v>
@@ -37055,19 +37058,19 @@
     </row>
     <row r="20" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A20" s="132" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D20" s="133" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E20" s="133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F20" s="133" t="s">
         <v>36</v>
@@ -37111,19 +37114,19 @@
     </row>
     <row r="21" spans="1:26" ht="27.6" outlineLevel="1">
       <c r="A21" s="132" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B21" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C21" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D21" s="133" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E21" s="133" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F21" s="133" t="s">
         <v>36</v>
@@ -37167,19 +37170,19 @@
     </row>
     <row r="22" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A22" s="132" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C22" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D22" s="133" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E22" s="133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F22" s="133" t="s">
         <v>36</v>
@@ -37188,7 +37191,7 @@
         <v>45369</v>
       </c>
       <c r="H22" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I22" s="133" t="s">
         <v>36</v>
@@ -37197,7 +37200,7 @@
         <v>45369</v>
       </c>
       <c r="K22" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L22" s="133" t="s">
         <v>36</v>
@@ -37206,7 +37209,7 @@
         <v>45369</v>
       </c>
       <c r="N22" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O22" s="133"/>
       <c r="P22" s="7"/>
@@ -37223,19 +37226,19 @@
     </row>
     <row r="23" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A23" s="132" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B23" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C23" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D23" s="133" t="s">
+        <v>359</v>
+      </c>
+      <c r="E23" s="133" t="s">
         <v>361</v>
-      </c>
-      <c r="E23" s="133" t="s">
-        <v>363</v>
       </c>
       <c r="F23" s="133" t="s">
         <v>36</v>
@@ -37244,7 +37247,7 @@
         <v>45369</v>
       </c>
       <c r="H23" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I23" s="133" t="s">
         <v>36</v>
@@ -37253,7 +37256,7 @@
         <v>45369</v>
       </c>
       <c r="K23" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L23" s="133" t="s">
         <v>36</v>
@@ -37262,7 +37265,7 @@
         <v>45369</v>
       </c>
       <c r="N23" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O23" s="133"/>
       <c r="P23" s="7"/>
@@ -37279,19 +37282,19 @@
     </row>
     <row r="24" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A24" s="132" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B24" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D24" s="133" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="133" t="s">
         <v>362</v>
-      </c>
-      <c r="E24" s="133" t="s">
-        <v>364</v>
       </c>
       <c r="F24" s="133" t="s">
         <v>36</v>
@@ -37300,7 +37303,7 @@
         <v>45369</v>
       </c>
       <c r="H24" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I24" s="133" t="s">
         <v>36</v>
@@ -37309,7 +37312,7 @@
         <v>45369</v>
       </c>
       <c r="K24" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L24" s="133" t="s">
         <v>36</v>
@@ -37318,7 +37321,7 @@
         <v>45369</v>
       </c>
       <c r="N24" s="133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O24" s="133"/>
       <c r="P24" s="7"/>
@@ -37335,19 +37338,19 @@
     </row>
     <row r="25" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A25" s="132" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B25" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D25" s="133" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E25" s="133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F25" s="133" t="s">
         <v>36</v>
@@ -37356,7 +37359,7 @@
         <v>45369</v>
       </c>
       <c r="H25" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I25" s="133" t="s">
         <v>36</v>
@@ -37365,7 +37368,7 @@
         <v>45369</v>
       </c>
       <c r="K25" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L25" s="133" t="s">
         <v>36</v>
@@ -37374,7 +37377,7 @@
         <v>45369</v>
       </c>
       <c r="N25" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O25" s="133"/>
       <c r="P25" s="7"/>
@@ -37391,19 +37394,19 @@
     </row>
     <row r="26" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A26" s="132" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B26" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D26" s="133" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E26" s="133" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F26" s="133" t="s">
         <v>36</v>
@@ -37412,7 +37415,7 @@
         <v>45369</v>
       </c>
       <c r="H26" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I26" s="133" t="s">
         <v>36</v>
@@ -37421,7 +37424,7 @@
         <v>45369</v>
       </c>
       <c r="K26" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L26" s="133" t="s">
         <v>36</v>
@@ -37430,7 +37433,7 @@
         <v>45369</v>
       </c>
       <c r="N26" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O26" s="133"/>
       <c r="P26" s="7"/>
@@ -37447,19 +37450,19 @@
     </row>
     <row r="27" spans="1:26" ht="27.6" outlineLevel="1">
       <c r="A27" s="132" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B27" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C27" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D27" s="133" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E27" s="133" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F27" s="133" t="s">
         <v>36</v>
@@ -37468,7 +37471,7 @@
         <v>45369</v>
       </c>
       <c r="H27" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I27" s="133" t="s">
         <v>36</v>
@@ -37477,7 +37480,7 @@
         <v>45369</v>
       </c>
       <c r="K27" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L27" s="133" t="s">
         <v>36</v>
@@ -37486,7 +37489,7 @@
         <v>45369</v>
       </c>
       <c r="N27" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O27" s="133"/>
       <c r="P27" s="7"/>
@@ -37503,19 +37506,19 @@
     </row>
     <row r="28" spans="1:26" ht="27.6" outlineLevel="1">
       <c r="A28" s="132" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B28" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="139" t="s">
-        <v>342</v>
-      </c>
       <c r="D28" s="133" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E28" s="133" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F28" s="133" t="s">
         <v>36</v>
@@ -37559,19 +37562,19 @@
     </row>
     <row r="29" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A29" s="132" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="133" t="s">
         <v>378</v>
-      </c>
-      <c r="B29" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C29" s="139" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" s="133" t="s">
-        <v>381</v>
-      </c>
-      <c r="E29" s="133" t="s">
-        <v>380</v>
       </c>
       <c r="F29" s="133" t="s">
         <v>36</v>
@@ -37615,19 +37618,19 @@
     </row>
     <row r="30" spans="1:26" ht="13.8" outlineLevel="1">
       <c r="A30" s="132" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="133" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="139" t="s">
-        <v>342</v>
-      </c>
-      <c r="D30" s="133" t="s">
-        <v>382</v>
-      </c>
       <c r="E30" s="133" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F30" s="133" t="s">
         <v>36</v>
